--- a/Excel_learning/excel_learning.xlsx
+++ b/Excel_learning/excel_learning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://panthers-my.sharepoint.com/personal/pullakh2_uwm_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddartha/Desktop/github/Excel/Excel_learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{F80B09DE-A2D1-4F4D-84E5-09CBA3532990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8434C0C-2EB8-8243-B13A-7C8793E66B46}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52798577-D018-3B4C-AC90-B3FC188A81D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17380" activeTab="5" xr2:uid="{6681C0A6-6DC6-ED4A-868A-4DA94EBF96B7}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="insertColumnsandRows" sheetId="5" r:id="rId5"/>
     <sheet name="Formulas" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>Item</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -281,9 +284,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -777,112 +779,112 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
+      <c r="A1">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>44372</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>44373</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>44374</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>44375</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>44376</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>44377</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>44378</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>44379</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>44380</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>44381</v>
       </c>
     </row>
@@ -893,7 +895,7 @@
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>15</v>
       </c>
     </row>
@@ -904,7 +906,7 @@
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -915,7 +917,7 @@
       <c r="D19">
         <v>6</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -926,7 +928,7 @@
       <c r="D20">
         <v>8</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>18</v>
       </c>
     </row>
@@ -937,7 +939,7 @@
       <c r="D21">
         <v>10</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -948,7 +950,7 @@
       <c r="D22">
         <v>12</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>20</v>
       </c>
     </row>
@@ -959,7 +961,7 @@
       <c r="D23">
         <v>14</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>21</v>
       </c>
     </row>
@@ -970,7 +972,7 @@
       <c r="D24">
         <v>16</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -981,7 +983,7 @@
       <c r="D25">
         <v>18</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -992,7 +994,7 @@
       <c r="D26">
         <v>20</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1052,7 +1054,7 @@
         <v>55</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D21" si="0">B3+C3</f>
+        <f t="shared" ref="D3:D20" si="0">B3+C3</f>
         <v>75</v>
       </c>
     </row>
@@ -1457,14 +1459,14 @@
       <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1478,16 +1480,16 @@
       <c r="D2">
         <v>39</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>309</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>39</v>
       </c>
     </row>
@@ -1501,16 +1503,16 @@
       <c r="D3">
         <v>35</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>320</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>35</v>
       </c>
     </row>
@@ -1524,16 +1526,16 @@
       <c r="D4">
         <v>45</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>318</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>45</v>
       </c>
     </row>
@@ -1547,16 +1549,16 @@
       <c r="D5">
         <v>44</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>314</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>44</v>
       </c>
     </row>
@@ -1698,7 +1700,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1781,7 +1783,9 @@
       </c>
     </row>
     <row r="18" spans="12:12" ht="23" x14ac:dyDescent="0.3">
-      <c r="L18" s="4"/>
+      <c r="L18" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
